--- a/data/trans_dic/P23_DUKE_AC_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>78,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85,19%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82,49%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 24,52</t>
+          <t>71,37; 85,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 21,35</t>
+          <t>76,73; 90,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 27,39</t>
+          <t>75,88; 88,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 18,11</t>
+          <t>74,22; 88,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,26; 18,89</t>
+          <t>72,81; 84,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 37,1</t>
+          <t>80,31; 90,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,43</t>
+          <t>77,57; 89,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,22</t>
+          <t>77,11; 88,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,2; 28,23</t>
+          <t>74,27; 83,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>80,89; 89,1</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79,0; 87,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>77,87; 86,52</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>74,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>86,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>80,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 26,61</t>
+          <t>64,24; 80,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 24,58</t>
+          <t>72,82; 87,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 21,71</t>
+          <t>64,59; 82,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 21,95</t>
+          <t>70,63; 85,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,64</t>
+          <t>81,25; 91,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 26,06</t>
+          <t>79,84; 91,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 20,92</t>
+          <t>69,51; 84,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 18,45</t>
+          <t>73,12; 86,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 22,25</t>
+          <t>74,91; 85,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>78,57; 87,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>68,86; 80,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74,68; 85,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>67,74%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>91,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>86,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>84,13%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 26,09</t>
+          <t>25,64; 83,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 52,42</t>
+          <t>68,7; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 48,72</t>
+          <t>77,71; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 27,3</t>
+          <t>66,33; 98,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 25,81</t>
+          <t>65,37; 91,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 31,4</t>
+          <t>76,09; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 21,55</t>
+          <t>60,15; 89,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 37,72</t>
+          <t>64,5; 91,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 37,47</t>
+          <t>43,63; 81,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>80,0; 97,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 93,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>72,57; 92,68</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>82,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80,74%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>81,84%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,48</t>
+          <t>66,22; 79,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,2</t>
+          <t>78,12; 87,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 22,81</t>
+          <t>75,25; 85,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,22</t>
+          <t>75,72; 86,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,32</t>
+          <t>78,38; 86,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 29,17</t>
+          <t>83,06; 90,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,15</t>
+          <t>76,09; 84,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,67</t>
+          <t>77,65; 85,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 23,79</t>
+          <t>74,33; 81,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82,14; 87,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>77,0; 83,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77,9; 84,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>325560</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>273964</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>304766</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>377678</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>378521</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>340230</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>332697</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>434887</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>704081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>614194</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>637463</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>812566</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>294421; 350811</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>250030; 293325</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>279096; 326724</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>342618; 408698</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>348624; 404850</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>317294; 359042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>304827; 351253</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>403661; 461243</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>662063; 743706</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>583157; 642335</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>601048; 665042</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>767092; 852295</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>252877</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>215025</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>221886</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>310840</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>370689</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>272749</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>246410</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>320716</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>623565</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>487774</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>468296</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>631556</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>224601; 280285</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>194086; 234168</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>193556; 246540</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>275872; 335841</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>345607; 390179</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>251455; 289143</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>222655; 269758</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>289012; 341746</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>580542; 658758</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>456849; 510933</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>426958; 500257</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>586863; 668754</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54480</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66263</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75543</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>101738</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>75768</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74390</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>61385</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>87781</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>130247</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>140653</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136928</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>189520</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25217; 81723</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50908; 74098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62219; 80068</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77000; 113766</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61391; 86319</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60697; 79766</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47133; 70090</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>70422; 99675</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>83895; 157483</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>123090; 150340</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>119907; 147952</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>163491; 208780</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>555.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>632917</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>555252</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>602196</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>790257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>824977</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>687370</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>640492</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>843385</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1457894</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1242622</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1242687</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1633642</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>569881; 681692</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>520658; 584726</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>562570; 636843</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>733153; 833658</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>782360; 861142</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>655983; 713537</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>602333; 670140</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>798177; 881774</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1381470; 1522393</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1196137; 1279670</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1185228; 1286471</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1555103; 1691649</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
